--- a/logs/final_winner_optimization/Final_winner_optimization.xlsx
+++ b/logs/final_winner_optimization/Final_winner_optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mgep-my.sharepoint.com/personal/uxue_ballarin_alumni_mondragon_edu/Documents/Semestre 8-Erasmus/Simula/ship_qnn/logs/final_winner_optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_AD4D2F04E46CFB4ACB3E20D455D6CCDA693EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{033E33EF-7FDE-48F3-8207-52E0BDAE1671}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_AD4D2F04E46CFB4ACB3E20D455D6CCDA693EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AADCB32E-B47F-470B-BFF6-DDB7D9A8B0A5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="144">
   <si>
     <t>date</t>
   </si>
@@ -440,6 +440,27 @@
   </si>
   <si>
     <t>02-25_16-22-51_multihead_spsa_compact_f5_w5_h5_effsu2_effsu2_realamplitudes_full_r2_3_2.pkl</t>
+  </si>
+  <si>
+    <t>02-25_23-27-08_multihead_spsa_compact_f5_w5_h5_effsu2_effsu2_realamplitudes_full_r2_3_2.pkl</t>
+  </si>
+  <si>
+    <t>[0.01, 0.0005]</t>
+  </si>
+  <si>
+    <t>02-26_16-20-57_multihead_spsa_compact_f5_w5_h5_effsu2_effsu2_realamplitudes_full_r2_3_2.pkl</t>
+  </si>
+  <si>
+    <t>Promedio de Surge Velocity Global closed R2</t>
+  </si>
+  <si>
+    <t>Promedio de Sway Velocity Global closed R2</t>
+  </si>
+  <si>
+    <t>Promedio de Yaw Rate Global closed R2</t>
+  </si>
+  <si>
+    <t>Promedio de Yaw Angle Global closed R2</t>
   </si>
 </sst>
 </file>
@@ -579,13 +600,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Uxue Ballarin" refreshedDate="46079.432301851855" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="36" xr:uid="{D08D57CE-FB90-42B1-BBC2-2529582820EE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Uxue Ballarin" refreshedDate="46080.472198958334" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="38" xr:uid="{D08D57CE-FB90-42B1-BBC2-2529582820EE}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabla1"/>
   </cacheSource>
   <cacheFields count="75">
     <cacheField name="date" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2026-02-16T18:21:04" maxDate="2026-02-25T16:22:51"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2026-02-16T18:21:04" maxDate="2026-02-26T16:20:57"/>
     </cacheField>
     <cacheField name="model_id" numFmtId="0">
       <sharedItems/>
@@ -682,9 +703,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="learning_rate" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems count="3">
         <s v="[0.05, 0.001]"/>
         <s v="[0.1, 0.005]"/>
+        <s v="[0.01, 0.0005]"/>
       </sharedItems>
     </cacheField>
     <cacheField name="perturbation" numFmtId="0">
@@ -708,28 +730,28 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.1486734099532923E-2" maxValue="0.1744684459638422"/>
     </cacheField>
     <cacheField name="Val Global Open MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.6874044125784824" maxValue="14.436079720756769"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.6874044125784824" maxValue="28.636242933993429"/>
     </cacheField>
     <cacheField name="Val Global Open R2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.63362316354320924" maxValue="0.84586395493464817"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.36236966024911332" maxValue="0.84586395493464817"/>
     </cacheField>
     <cacheField name="Val Global Closed R2" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.35402920390919479" maxValue="0.28983463219748351"/>
     </cacheField>
     <cacheField name="step MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.8011894210072" maxValue="21.374570639261869"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.8011894210072" maxValue="32.443982072017477"/>
     </cacheField>
     <cacheField name="step R2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.62894636940778181" maxValue="0.83688850090748401"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.40789735309804831" maxValue="0.83688850090748401"/>
     </cacheField>
     <cacheField name="local MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.8011894210072" maxValue="21.374570639261869"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.8011894210072" maxValue="32.443982072017477"/>
     </cacheField>
     <cacheField name="global open MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.8011894210072" maxValue="21.374570639261869"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.8011894210072" maxValue="32.443982072017477"/>
     </cacheField>
     <cacheField name="global open R2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.62894636940778181" maxValue="0.83688850090748401"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.40789735309804831" maxValue="0.83688850090748401"/>
     </cacheField>
     <cacheField name="global closed MSE" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="69.623397543544598" maxValue="152.46633963909221"/>
@@ -744,19 +766,19 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Surge Velocity Step MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4765737684561607E-2" maxValue="9.6115107003267433E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4765737684561607E-2" maxValue="0.11042870518950169"/>
     </cacheField>
     <cacheField name="Surge Velocity Step R2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.30208005030826518" maxValue="0.74755579375279224"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.19814482058725269" maxValue="0.74755579375279224"/>
     </cacheField>
     <cacheField name="Surge Velocity Local MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4765737684561607E-2" maxValue="9.6115107003267433E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4765737684561607E-2" maxValue="0.11042870518950169"/>
     </cacheField>
     <cacheField name="Surge Velocity Global open MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4765737684561607E-2" maxValue="9.6115107003267433E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4765737684561607E-2" maxValue="0.11042870518950169"/>
     </cacheField>
     <cacheField name="Surge Velocity Global open R2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.30208005030826518" maxValue="0.74755579375279224"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.19814482058725269" maxValue="0.74755579375279224"/>
     </cacheField>
     <cacheField name="Surge Velocity Global closed MSE" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.4559220538329798E-2" maxValue="0.57571505934527367"/>
@@ -765,61 +787,61 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.1804357065468198" maxValue="0.53121658649646997"/>
     </cacheField>
     <cacheField name="Sway Velocity Step MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.9578738850019909E-2" maxValue="6.37656406811897E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.9578738850019909E-2" maxValue="0.13178380712424911"/>
     </cacheField>
     <cacheField name="Sway Velocity Step R2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.77906567423343609" maxValue="0.89751598737120231"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.5433972549649968" maxValue="0.89751598737120231"/>
     </cacheField>
     <cacheField name="Sway Velocity Local MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.9578738850019909E-2" maxValue="6.37656406811897E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.9578738850019909E-2" maxValue="0.13178380712424911"/>
     </cacheField>
     <cacheField name="Sway Velocity Global open MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.9578738850019909E-2" maxValue="6.37656406811897E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.9578738850019909E-2" maxValue="0.13178380712424911"/>
     </cacheField>
     <cacheField name="Sway Velocity Global open R2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.77906567423343609" maxValue="0.89751598737120231"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.5433972549649968" maxValue="0.89751598737120231"/>
     </cacheField>
     <cacheField name="Sway Velocity Global closed MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.8366126878513024E-2" maxValue="0.30691620418483978"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.8366126878513024E-2" maxValue="0.32205568194632472"/>
     </cacheField>
     <cacheField name="Sway Velocity Global closed R2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-6.3399095720424459E-2" maxValue="0.65918237960112847"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.1158541526438668" maxValue="0.65918237960112847"/>
     </cacheField>
     <cacheField name="Yaw Rate Step MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.2675503808002708E-2" maxValue="9.1998342149438278E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.2675503808002708E-2" maxValue="0.2042832674402151"/>
     </cacheField>
     <cacheField name="Yaw Rate Step R2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.63065575552086939" maxValue="0.8688181875349652"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1798672964141548" maxValue="0.8688181875349652"/>
     </cacheField>
     <cacheField name="Yaw Rate Local MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.2675503808002708E-2" maxValue="9.1998342149438278E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.2675503808002708E-2" maxValue="0.2042832674402151"/>
     </cacheField>
     <cacheField name="Yaw Rate Global open MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.2675503808002708E-2" maxValue="9.1998342149438278E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.2675503808002708E-2" maxValue="0.2042832674402151"/>
     </cacheField>
     <cacheField name="Yaw Rate Global open R2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.63065575552086939" maxValue="0.8688181875349652"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1798672964141548" maxValue="0.8688181875349652"/>
     </cacheField>
     <cacheField name="Yaw Rate Global closed MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.7146057190884668E-2" maxValue="0.25859328946427912"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.7146057190884668E-2" maxValue="0.28468735236755471"/>
     </cacheField>
     <cacheField name="Yaw Rate Global closed R2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.8170263649043967E-2" maxValue="0.65013614484248694"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.142929672603894" maxValue="0.65013614484248694"/>
     </cacheField>
     <cacheField name="Yaw Angle Step MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="47.074901421961002" maxValue="85.35448692908875"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="47.074901421961002" maxValue="129.35805722816701"/>
     </cacheField>
     <cacheField name="Yaw Angle Step R2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.75706608394181096" maxValue="0.86601653220654784"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.63182416593721968" maxValue="0.86601653220654784"/>
     </cacheField>
     <cacheField name="Yaw Angle Local MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="47.074901421961002" maxValue="85.35448692908875"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="47.074901421961002" maxValue="129.35805722816701"/>
     </cacheField>
     <cacheField name="Yaw Angle Global open MSE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="47.074901421961002" maxValue="85.35448692908875"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="47.074901421961002" maxValue="129.35805722816701"/>
     </cacheField>
     <cacheField name="Yaw Angle Global open R2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.75706608394181096" maxValue="0.86601653220654784"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.63182416593721968" maxValue="0.86601653220654784"/>
     </cacheField>
     <cacheField name="Yaw Angle Global closed MSE" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="278.00904088934652" maxValue="608.89575060316417"/>
@@ -837,7 +859,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="36">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="38">
   <r>
     <d v="2026-02-16T18:21:04"/>
     <s v="02-16_18-21-04_multihead_spsa_compact_f5_w5_h5_effsu2_effsu2_realamplitudes_full_r2_3_2.pkl"/>
@@ -3610,12 +3632,166 @@
     <n v="384.88162543708472"/>
     <n v="-9.5440952787299693E-2"/>
   </r>
+  <r>
+    <d v="2026-02-25T23:27:08"/>
+    <s v="02-25_23-27-08_multihead_spsa_compact_f5_w5_h5_effsu2_effsu2_realamplitudes_full_r2_3_2.pkl"/>
+    <x v="0"/>
+    <s v="Best (Lowest Val Loss)"/>
+    <s v="data/reduce_row_number_absolutes"/>
+    <n v="16590"/>
+    <n v="4.5"/>
+    <s v="[['wv', 'sv', 'rarad'], ['sv', 'yr', 'rarad'], ['ya', 'yr']]"/>
+    <s v="['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']"/>
+    <n v="5"/>
+    <n v="5"/>
+    <s v="motion"/>
+    <s v="true"/>
+    <s v="false"/>
+    <s v="false"/>
+    <s v="multihead"/>
+    <s v="[{'features': ['wv', 'sv', 'rarad'], 'output_dim': 1, 'reps': 2, 'encoding': 'compact', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [0, 1, 2]}, {'features': ['sv', 'yr', 'rarad'], 'output_dim': 2, 'reps': 3, 'encoding': 'compact', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [0, 1, 2]}, {'features': ['ya', 'yr'], 'output_dim': 1, 'reps': 2, 'encoding': 'compact', 'ansatz': 'realamplitudes', 'entangle': 'full', 'map': [0, 1, -1]}]"/>
+    <n v="3"/>
+    <s v="compact"/>
+    <s v="['effsu2', 'effsu2', 'realamplitudes']"/>
+    <s v="full"/>
+    <s v="[2, 3, 2]"/>
+    <s v="[[0, 1, 2], [0, 1, 2], [0, 1, -1]]"/>
+    <s v="false"/>
+    <s v="spsa"/>
+    <n v="4000"/>
+    <n v="4000"/>
+    <m/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="180"/>
+    <n v="60"/>
+    <n v="120"/>
+    <n v="0.15911331649930491"/>
+    <n v="23.76731130572179"/>
+    <n v="0.36236966024911332"/>
+    <n v="-0.2203559043159494"/>
+    <n v="26.80419074319915"/>
+    <n v="0.40789735309804831"/>
+    <n v="26.80419074319915"/>
+    <n v="26.80419074319915"/>
+    <n v="0.40789735309804831"/>
+    <n v="107.7487677249886"/>
+    <n v="-0.19204058929996079"/>
+    <n v="0.8"/>
+    <s v="identity"/>
+    <n v="0.1084906814355005"/>
+    <n v="0.21221737882565619"/>
+    <n v="0.1084906814355005"/>
+    <n v="0.1084906814355005"/>
+    <n v="0.21221737882565619"/>
+    <n v="0.19153994176305739"/>
+    <n v="-0.39082763040243362"/>
+    <n v="0.13178380712424911"/>
+    <n v="0.5433972549649968"/>
+    <n v="0.13178380712424911"/>
+    <n v="0.13178380712424911"/>
+    <n v="0.5433972549649968"/>
+    <n v="0.30591898542677121"/>
+    <n v="-5.9943945711704361E-2"/>
+    <n v="0.2042832674402151"/>
+    <n v="0.1798672964141548"/>
+    <n v="0.2042832674402151"/>
+    <n v="0.2042832674402151"/>
+    <n v="0.1798672964141548"/>
+    <n v="0.27222405780632708"/>
+    <n v="-9.2893487104375616E-2"/>
+    <n v="106.77220521679691"/>
+    <n v="0.69610748218738094"/>
+    <n v="106.77220521679691"/>
+    <n v="106.77220521679691"/>
+    <n v="0.69610748218738094"/>
+    <n v="430.22538791495748"/>
+    <n v="-0.22449729398133139"/>
+  </r>
+  <r>
+    <d v="2026-02-26T16:20:57"/>
+    <s v="02-26_16-20-57_multihead_spsa_compact_f5_w5_h5_effsu2_effsu2_realamplitudes_full_r2_3_2.pkl"/>
+    <x v="1"/>
+    <s v="Final (Last Iteration)"/>
+    <s v="data/reduce_row_number_absolutes"/>
+    <n v="16590"/>
+    <n v="4.5"/>
+    <s v="[['wv', 'sv', 'rarad'], ['sv', 'yr', 'rarad'], ['ya', 'yr']]"/>
+    <s v="['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']"/>
+    <n v="5"/>
+    <n v="5"/>
+    <s v="motion"/>
+    <s v="true"/>
+    <s v="false"/>
+    <s v="false"/>
+    <s v="multihead"/>
+    <s v="[{'features': ['wv', 'sv', 'rarad'], 'output_dim': 1, 'reps': 2, 'encoding': 'compact', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [0, 1, 2]}, {'features': ['sv', 'yr', 'rarad'], 'output_dim': 2, 'reps': 3, 'encoding': 'compact', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [0, 1, 2]}, {'features': ['ya', 'yr'], 'output_dim': 1, 'reps': 2, 'encoding': 'compact', 'ansatz': 'realamplitudes', 'entangle': 'full', 'map': [0, 1, -1]}]"/>
+    <n v="3"/>
+    <s v="compact"/>
+    <s v="['effsu2', 'effsu2', 'realamplitudes']"/>
+    <s v="full"/>
+    <s v="[2, 3, 2]"/>
+    <s v="[[0, 1, 2], [0, 1, 2], [0, 1, -1]]"/>
+    <s v="false"/>
+    <s v="spsa"/>
+    <n v="4000"/>
+    <n v="4000"/>
+    <m/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="180"/>
+    <n v="60"/>
+    <n v="120"/>
+    <n v="0.1535401410543428"/>
+    <n v="28.636242933993429"/>
+    <n v="0.36730705242407818"/>
+    <n v="-0.18502663943294051"/>
+    <n v="32.443982072017477"/>
+    <n v="0.41324394603183467"/>
+    <n v="32.443982072017477"/>
+    <n v="32.443982072017477"/>
+    <n v="0.41324394603183467"/>
+    <n v="92.769041232648135"/>
+    <n v="-0.13105631365722351"/>
+    <n v="0.8"/>
+    <s v="identity"/>
+    <n v="0.11042870518950169"/>
+    <n v="0.19814482058725269"/>
+    <n v="0.11042870518950169"/>
+    <n v="0.11042870518950169"/>
+    <n v="0.19814482058725269"/>
+    <n v="0.16684287765385891"/>
+    <n v="-0.21149501268980539"/>
+    <n v="0.1041841981164686"/>
+    <n v="0.63902400539696647"/>
+    <n v="0.1041841981164686"/>
+    <n v="0.1041841981164686"/>
+    <n v="0.63902400539696647"/>
+    <n v="0.32205568194632472"/>
+    <n v="-0.1158541526438668"/>
+    <n v="0.20325815659681429"/>
+    <n v="0.18398279220589681"/>
+    <n v="0.20325815659681429"/>
+    <n v="0.20325815659681429"/>
+    <n v="0.18398279220589681"/>
+    <n v="0.28468735236755471"/>
+    <n v="-0.142929672603894"/>
+    <n v="129.35805722816701"/>
+    <n v="0.63182416593721968"/>
+    <n v="129.35805722816701"/>
+    <n v="129.35805722816701"/>
+    <n v="0.63182416593721968"/>
+    <n v="370.30257901862478"/>
+    <n v="-5.3946416691347247E-2"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24326305-70A8-4C78-9FE9-6DC3DEA8AA33}" name="TablaDinámica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:H15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:L17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="75">
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -3663,9 +3839,10 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3700,28 +3877,28 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="4">
     <field x="28"/>
@@ -3729,7 +3906,7 @@
     <field x="30"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="16">
     <i>
       <x/>
     </i>
@@ -3769,6 +3946,12 @@
     <i r="2">
       <x v="1"/>
     </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -3776,7 +3959,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="7">
+  <colItems count="11">
     <i>
       <x/>
     </i>
@@ -3798,14 +3981,30 @@
     <i i="6">
       <x v="6"/>
     </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+    <i i="9">
+      <x v="9"/>
+    </i>
+    <i i="10">
+      <x v="10"/>
+    </i>
   </colItems>
-  <dataFields count="7">
+  <dataFields count="11">
     <dataField name="Promedio de Val Global Open R2" fld="36" subtotal="average" baseField="28" baseItem="0"/>
     <dataField name="Promedio de Val Global Closed R2" fld="37" subtotal="average" baseField="28" baseItem="0"/>
     <dataField name="Promedio de Surge Velocity Global open R2" fld="51" subtotal="average" baseField="2" baseItem="4"/>
     <dataField name="Promedio de Sway Velocity Global open R2" fld="58" subtotal="average" baseField="2" baseItem="4"/>
     <dataField name="Promedio de Yaw Rate Global open R2" fld="65" subtotal="average" baseField="2" baseItem="4"/>
     <dataField name="Promedio de Yaw Angle Global open R2" fld="72" subtotal="average" baseField="2" baseItem="4"/>
+    <dataField name="Promedio de Surge Velocity Global closed R2" fld="53" subtotal="average" baseField="29" baseItem="0"/>
+    <dataField name="Promedio de Sway Velocity Global closed R2" fld="60" subtotal="average" baseField="29" baseItem="0"/>
+    <dataField name="Promedio de Yaw Rate Global closed R2" fld="67" subtotal="average" baseField="29" baseItem="0"/>
+    <dataField name="Promedio de Yaw Angle Global closed R2" fld="74" subtotal="average" baseField="29" baseItem="0"/>
     <dataField name="Cuenta de model_id" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -3821,8 +4020,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FD8B8E0-7297-488B-B165-DA6A36FEBC27}" name="Tabla1" displayName="Tabla1" ref="A1:BW37" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:BW37" xr:uid="{0FD8B8E0-7297-488B-B165-DA6A36FEBC27}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FD8B8E0-7297-488B-B165-DA6A36FEBC27}" name="Tabla1" displayName="Tabla1" ref="A1:BW39" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:BW39" xr:uid="{0FD8B8E0-7297-488B-B165-DA6A36FEBC27}"/>
   <tableColumns count="75">
     <tableColumn id="1" xr3:uid="{E29847FD-796C-4D7F-957B-1B478BBCCC1D}" name="date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{AFC0F8DD-B9EA-4787-891C-59254C048BBB}" name="model_id"/>
@@ -4167,10 +4366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW37"/>
+  <dimension ref="A1:BW39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:BW37"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12434,6 +12633,454 @@
       </c>
       <c r="BW37">
         <v>-9.5440952787299693E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>46078.977175925917</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38">
+        <v>16590</v>
+      </c>
+      <c r="G38">
+        <v>4.5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s">
+        <v>79</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38" t="s">
+        <v>80</v>
+      </c>
+      <c r="M38" t="s">
+        <v>81</v>
+      </c>
+      <c r="N38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P38" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>84</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s">
+        <v>85</v>
+      </c>
+      <c r="T38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U38" t="s">
+        <v>87</v>
+      </c>
+      <c r="V38" t="s">
+        <v>88</v>
+      </c>
+      <c r="W38" t="s">
+        <v>89</v>
+      </c>
+      <c r="X38" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z38">
+        <v>4000</v>
+      </c>
+      <c r="AA38">
+        <v>4000</v>
+      </c>
+      <c r="AC38">
+        <v>1024</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE38">
+        <v>0.05</v>
+      </c>
+      <c r="AF38">
+        <v>180</v>
+      </c>
+      <c r="AG38">
+        <v>60</v>
+      </c>
+      <c r="AH38">
+        <v>120</v>
+      </c>
+      <c r="AI38">
+        <v>0.15911331649930491</v>
+      </c>
+      <c r="AJ38">
+        <v>23.76731130572179</v>
+      </c>
+      <c r="AK38">
+        <v>0.36236966024911332</v>
+      </c>
+      <c r="AL38">
+        <v>-0.2203559043159494</v>
+      </c>
+      <c r="AM38">
+        <v>26.80419074319915</v>
+      </c>
+      <c r="AN38">
+        <v>0.40789735309804831</v>
+      </c>
+      <c r="AO38">
+        <v>26.80419074319915</v>
+      </c>
+      <c r="AP38">
+        <v>26.80419074319915</v>
+      </c>
+      <c r="AQ38">
+        <v>0.40789735309804831</v>
+      </c>
+      <c r="AR38">
+        <v>107.7487677249886</v>
+      </c>
+      <c r="AS38">
+        <v>-0.19204058929996079</v>
+      </c>
+      <c r="AT38">
+        <v>0.8</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV38">
+        <v>0.1084906814355005</v>
+      </c>
+      <c r="AW38">
+        <v>0.21221737882565619</v>
+      </c>
+      <c r="AX38">
+        <v>0.1084906814355005</v>
+      </c>
+      <c r="AY38">
+        <v>0.1084906814355005</v>
+      </c>
+      <c r="AZ38">
+        <v>0.21221737882565619</v>
+      </c>
+      <c r="BA38">
+        <v>0.19153994176305739</v>
+      </c>
+      <c r="BB38">
+        <v>-0.39082763040243362</v>
+      </c>
+      <c r="BC38">
+        <v>0.13178380712424911</v>
+      </c>
+      <c r="BD38">
+        <v>0.5433972549649968</v>
+      </c>
+      <c r="BE38">
+        <v>0.13178380712424911</v>
+      </c>
+      <c r="BF38">
+        <v>0.13178380712424911</v>
+      </c>
+      <c r="BG38">
+        <v>0.5433972549649968</v>
+      </c>
+      <c r="BH38">
+        <v>0.30591898542677121</v>
+      </c>
+      <c r="BI38">
+        <v>-5.9943945711704361E-2</v>
+      </c>
+      <c r="BJ38">
+        <v>0.2042832674402151</v>
+      </c>
+      <c r="BK38">
+        <v>0.1798672964141548</v>
+      </c>
+      <c r="BL38">
+        <v>0.2042832674402151</v>
+      </c>
+      <c r="BM38">
+        <v>0.2042832674402151</v>
+      </c>
+      <c r="BN38">
+        <v>0.1798672964141548</v>
+      </c>
+      <c r="BO38">
+        <v>0.27222405780632708</v>
+      </c>
+      <c r="BP38">
+        <v>-9.2893487104375616E-2</v>
+      </c>
+      <c r="BQ38">
+        <v>106.77220521679691</v>
+      </c>
+      <c r="BR38">
+        <v>0.69610748218738094</v>
+      </c>
+      <c r="BS38">
+        <v>106.77220521679691</v>
+      </c>
+      <c r="BT38">
+        <v>106.77220521679691</v>
+      </c>
+      <c r="BU38">
+        <v>0.69610748218738094</v>
+      </c>
+      <c r="BV38">
+        <v>430.22538791495748</v>
+      </c>
+      <c r="BW38">
+        <v>-0.22449729398133139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>46079.681215277778</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39">
+        <v>16590</v>
+      </c>
+      <c r="G39">
+        <v>4.5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39" t="s">
+        <v>80</v>
+      </c>
+      <c r="M39" t="s">
+        <v>81</v>
+      </c>
+      <c r="N39" t="s">
+        <v>82</v>
+      </c>
+      <c r="O39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>84</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s">
+        <v>85</v>
+      </c>
+      <c r="T39" t="s">
+        <v>86</v>
+      </c>
+      <c r="U39" t="s">
+        <v>87</v>
+      </c>
+      <c r="V39" t="s">
+        <v>88</v>
+      </c>
+      <c r="W39" t="s">
+        <v>89</v>
+      </c>
+      <c r="X39" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z39">
+        <v>4000</v>
+      </c>
+      <c r="AA39">
+        <v>4000</v>
+      </c>
+      <c r="AC39">
+        <v>1024</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE39">
+        <v>0.05</v>
+      </c>
+      <c r="AF39">
+        <v>180</v>
+      </c>
+      <c r="AG39">
+        <v>60</v>
+      </c>
+      <c r="AH39">
+        <v>120</v>
+      </c>
+      <c r="AI39">
+        <v>0.1535401410543428</v>
+      </c>
+      <c r="AJ39">
+        <v>28.636242933993429</v>
+      </c>
+      <c r="AK39">
+        <v>0.36730705242407818</v>
+      </c>
+      <c r="AL39">
+        <v>-0.18502663943294051</v>
+      </c>
+      <c r="AM39">
+        <v>32.443982072017477</v>
+      </c>
+      <c r="AN39">
+        <v>0.41324394603183467</v>
+      </c>
+      <c r="AO39">
+        <v>32.443982072017477</v>
+      </c>
+      <c r="AP39">
+        <v>32.443982072017477</v>
+      </c>
+      <c r="AQ39">
+        <v>0.41324394603183467</v>
+      </c>
+      <c r="AR39">
+        <v>92.769041232648135</v>
+      </c>
+      <c r="AS39">
+        <v>-0.13105631365722351</v>
+      </c>
+      <c r="AT39">
+        <v>0.8</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV39">
+        <v>0.11042870518950169</v>
+      </c>
+      <c r="AW39">
+        <v>0.19814482058725269</v>
+      </c>
+      <c r="AX39">
+        <v>0.11042870518950169</v>
+      </c>
+      <c r="AY39">
+        <v>0.11042870518950169</v>
+      </c>
+      <c r="AZ39">
+        <v>0.19814482058725269</v>
+      </c>
+      <c r="BA39">
+        <v>0.16684287765385891</v>
+      </c>
+      <c r="BB39">
+        <v>-0.21149501268980539</v>
+      </c>
+      <c r="BC39">
+        <v>0.1041841981164686</v>
+      </c>
+      <c r="BD39">
+        <v>0.63902400539696647</v>
+      </c>
+      <c r="BE39">
+        <v>0.1041841981164686</v>
+      </c>
+      <c r="BF39">
+        <v>0.1041841981164686</v>
+      </c>
+      <c r="BG39">
+        <v>0.63902400539696647</v>
+      </c>
+      <c r="BH39">
+        <v>0.32205568194632472</v>
+      </c>
+      <c r="BI39">
+        <v>-0.1158541526438668</v>
+      </c>
+      <c r="BJ39">
+        <v>0.20325815659681429</v>
+      </c>
+      <c r="BK39">
+        <v>0.18398279220589681</v>
+      </c>
+      <c r="BL39">
+        <v>0.20325815659681429</v>
+      </c>
+      <c r="BM39">
+        <v>0.20325815659681429</v>
+      </c>
+      <c r="BN39">
+        <v>0.18398279220589681</v>
+      </c>
+      <c r="BO39">
+        <v>0.28468735236755471</v>
+      </c>
+      <c r="BP39">
+        <v>-0.142929672603894</v>
+      </c>
+      <c r="BQ39">
+        <v>129.35805722816701</v>
+      </c>
+      <c r="BR39">
+        <v>0.63182416593721968</v>
+      </c>
+      <c r="BS39">
+        <v>129.35805722816701</v>
+      </c>
+      <c r="BT39">
+        <v>129.35805722816701</v>
+      </c>
+      <c r="BU39">
+        <v>0.63182416593721968</v>
+      </c>
+      <c r="BV39">
+        <v>370.30257901862478</v>
+      </c>
+      <c r="BW39">
+        <v>-5.3946416691347247E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12446,10 +13093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AEA6F4-3101-46CE-BC02-B01BACDA33CE}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12461,10 +13108,14 @@
     <col min="5" max="5" width="38.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>120</v>
       </c>
@@ -12487,10 +13138,22 @@
         <v>134</v>
       </c>
       <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>256</v>
       </c>
@@ -12513,10 +13176,22 @@
         <v>0.82495684538922021</v>
       </c>
       <c r="H2" s="7">
+        <v>-0.48595487533951703</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.29650239466825712</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.29827874927138642</v>
+      </c>
+      <c r="K2" s="7">
+        <v>-0.11771000984025048</v>
+      </c>
+      <c r="L2" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>91</v>
       </c>
@@ -12539,10 +13214,22 @@
         <v>0.82495684538922021</v>
       </c>
       <c r="H3" s="7">
+        <v>-0.48595487533951703</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.29650239466825712</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.29827874927138642</v>
+      </c>
+      <c r="K3" s="7">
+        <v>-0.11771000984025048</v>
+      </c>
+      <c r="L3" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0.1</v>
       </c>
@@ -12565,10 +13252,22 @@
         <v>0.82495684538922021</v>
       </c>
       <c r="H4" s="7">
+        <v>-0.48595487533951703</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.29650239466825712</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.29827874927138642</v>
+      </c>
+      <c r="K4" s="7">
+        <v>-0.11771000984025048</v>
+      </c>
+      <c r="L4" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>512</v>
       </c>
@@ -12591,10 +13290,22 @@
         <v>0.82459069569148646</v>
       </c>
       <c r="H5" s="7">
+        <v>-0.68904819286372621</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.27603124075496843</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.2883836586356433</v>
+      </c>
+      <c r="K5" s="7">
+        <v>-0.15495801795958178</v>
+      </c>
+      <c r="L5" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>91</v>
       </c>
@@ -12617,10 +13328,22 @@
         <v>0.82301903042274505</v>
       </c>
       <c r="H6" s="7">
+        <v>-0.54736414906804765</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.26367025837443092</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.2649669940969826</v>
+      </c>
+      <c r="K6" s="7">
+        <v>-0.13629389024869493</v>
+      </c>
+      <c r="L6" s="7">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>0.05</v>
       </c>
@@ -12643,10 +13366,22 @@
         <v>0.82870003092930777</v>
       </c>
       <c r="H7" s="7">
+        <v>-0.48946391853253529</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.2769980048168037</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.28153637384723157</v>
+      </c>
+      <c r="K7" s="7">
+        <v>-0.11399003896484228</v>
+      </c>
+      <c r="L7" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>0.1</v>
       </c>
@@ -12669,10 +13404,22 @@
         <v>0.82536744569639597</v>
       </c>
       <c r="H8" s="7">
+        <v>-0.51325486184517022</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.26632736562392106</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.26848533449802836</v>
+      </c>
+      <c r="K8" s="7">
+        <v>-0.11361242126551634</v>
+      </c>
+      <c r="L8" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>0.2</v>
       </c>
@@ -12695,10 +13442,22 @@
         <v>0.81437083787785769</v>
       </c>
       <c r="H9" s="7">
+        <v>-0.65246315321910353</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.24813529092330325</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.24529527697003206</v>
+      </c>
+      <c r="K9" s="7">
+        <v>-0.19268288129053646</v>
+      </c>
+      <c r="L9" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>128</v>
       </c>
@@ -12721,10 +13480,22 @@
         <v>0.83119168982019942</v>
       </c>
       <c r="H10" s="7">
+        <v>-1.2841211768055756</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.32794736675322606</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.38673364969801816</v>
+      </c>
+      <c r="K10" s="7">
+        <v>-0.23334735434530648</v>
+      </c>
+      <c r="L10" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>0.25</v>
       </c>
@@ -12747,36 +13518,60 @@
         <v>0.83119168982019942</v>
       </c>
       <c r="H11" s="7">
+        <v>-1.2841211768055756</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.32794736675322606</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.38673364969801816</v>
+      </c>
+      <c r="K11" s="7">
+        <v>-0.23334735434530648</v>
+      </c>
+      <c r="L11" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1024</v>
       </c>
       <c r="B12" s="7">
-        <v>0.74924138854953315</v>
+        <v>0.63941195077440816</v>
       </c>
       <c r="C12" s="7">
-        <v>-8.849625864658725E-2</v>
+        <v>-0.12112340528311802</v>
       </c>
       <c r="D12" s="7">
-        <v>0.58934326207549126</v>
+        <v>0.47958264425576641</v>
       </c>
       <c r="E12" s="7">
-        <v>0.84860775551704504</v>
+        <v>0.77506571970674121</v>
       </c>
       <c r="F12" s="7">
-        <v>0.72233815881884555</v>
+        <v>0.56793441181632565</v>
       </c>
       <c r="G12" s="7">
-        <v>0.82639235656347443</v>
+        <v>0.77998477584885328</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>-0.45295212191974871</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.16078079239530613</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.15452327495020191</v>
+      </c>
+      <c r="K12" s="7">
+        <v>-0.10723706237777796</v>
+      </c>
+      <c r="L12" s="7">
+        <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>91</v>
       </c>
@@ -12799,10 +13594,22 @@
         <v>0.82639235656347443</v>
       </c>
       <c r="H13" s="7">
+        <v>-0.51366844206920037</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.26025272902454277</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.26349721687193661</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-9.4443145194353414E-2</v>
+      </c>
+      <c r="L13" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>0.1</v>
       </c>
@@ -12825,33 +13632,133 @@
         <v>0.82639235656347443</v>
       </c>
       <c r="H14" s="7">
+        <v>-0.51366844206920037</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.26025272902454277</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.26349721687193661</v>
+      </c>
+      <c r="K14" s="7">
+        <v>-9.4443145194353414E-2</v>
+      </c>
+      <c r="L14" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.36483835633659578</v>
+      </c>
+      <c r="C15" s="7">
+        <v>-0.20269127187444497</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.20518109970645443</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.59121063018098163</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.18192504431002582</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.66396582406230031</v>
+      </c>
+      <c r="H15" s="7">
+        <v>-0.30116132154611952</v>
+      </c>
+      <c r="I15" s="7">
+        <v>-8.7899049177785571E-2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>-0.11791157985413481</v>
+      </c>
+      <c r="K15" s="7">
+        <v>-0.13922185533633932</v>
+      </c>
+      <c r="L15" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.36483835633659578</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-0.20269127187444497</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.20518109970645443</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.59121063018098163</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.18192504431002582</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.66396582406230031</v>
+      </c>
+      <c r="H16" s="7">
+        <v>-0.30116132154611952</v>
+      </c>
+      <c r="I16" s="7">
+        <v>-8.7899049177785571E-2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>-0.11791157985413481</v>
+      </c>
+      <c r="K16" s="7">
+        <v>-0.13922185533633932</v>
+      </c>
+      <c r="L16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="7">
-        <v>0.7552941208316446</v>
-      </c>
-      <c r="C15" s="7">
-        <v>-8.1632412003595278E-2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.59729527344439548</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.8501343585312966</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.73093902454599236</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.8248917804928364</v>
-      </c>
-      <c r="H15" s="7">
-        <v>36</v>
+      <c r="B17" s="7">
+        <v>0.73474381743716832</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-8.8003930944166309E-2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.57665768535292494</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.83650679388128002</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.70204355190199408</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.81642199331228194</v>
+      </c>
+      <c r="H17" s="7">
+        <v>-0.6188340064366501</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.25749446788783187</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.26502715251408071</v>
+      </c>
+      <c r="K17" s="7">
+        <v>-0.14126626191565328</v>
+      </c>
+      <c r="L17" s="7">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
